--- a/PythonResources/Data/Consumption/Sympheny/base_CB_dhw.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CB_dhw.xlsx
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -799,7 +799,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>903</v>
       </c>
       <c r="B903">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>932</v>
       </c>
       <c r="B932">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>954</v>
       </c>
       <c r="B954">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8135,7 +8135,7 @@
         <v>974</v>
       </c>
       <c r="B974">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>1142</v>
       </c>
       <c r="B1142">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9671,7 +9671,7 @@
         <v>1166</v>
       </c>
       <c r="B1166">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10103,7 +10103,7 @@
         <v>1220</v>
       </c>
       <c r="B1220">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11063,7 +11063,7 @@
         <v>1340</v>
       </c>
       <c r="B1340">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11639,7 +11639,7 @@
         <v>1412</v>
       </c>
       <c r="B1412">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11791,7 +11791,7 @@
         <v>1431</v>
       </c>
       <c r="B1431">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1508</v>
       </c>
       <c r="B1508">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12943,7 +12943,7 @@
         <v>1575</v>
       </c>
       <c r="B1575">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -12983,7 +12983,7 @@
         <v>1580</v>
       </c>
       <c r="B1580">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13743,7 +13743,7 @@
         <v>1675</v>
       </c>
       <c r="B1675">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14511,7 +14511,7 @@
         <v>1771</v>
       </c>
       <c r="B1771">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16623,7 +16623,7 @@
         <v>2035</v>
       </c>
       <c r="B2035">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17007,7 +17007,7 @@
         <v>2083</v>
       </c>
       <c r="B2083">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17199,7 +17199,7 @@
         <v>2107</v>
       </c>
       <c r="B2107">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2108" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17631,7 +17631,7 @@
         <v>2161</v>
       </c>
       <c r="B2161">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2162" spans="1:2">
@@ -17639,7 +17639,7 @@
         <v>2162</v>
       </c>
       <c r="B2162">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2163" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17655,7 +17655,7 @@
         <v>2164</v>
       </c>
       <c r="B2164">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17767,7 +17767,7 @@
         <v>2178</v>
       </c>
       <c r="B2178">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2179" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18703,7 +18703,7 @@
         <v>2295</v>
       </c>
       <c r="B2295">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -18711,7 +18711,7 @@
         <v>2296</v>
       </c>
       <c r="B2296">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2297" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18791,7 +18791,7 @@
         <v>2306</v>
       </c>
       <c r="B2306">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2307" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18919,7 +18919,7 @@
         <v>2322</v>
       </c>
       <c r="B2322">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2323" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -18983,7 +18983,7 @@
         <v>2330</v>
       </c>
       <c r="B2330">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2331" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19111,7 +19111,7 @@
         <v>2346</v>
       </c>
       <c r="B2346">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2347" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20135,7 +20135,7 @@
         <v>2474</v>
       </c>
       <c r="B2474">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2475" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20215,7 +20215,7 @@
         <v>2484</v>
       </c>
       <c r="B2484">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2485" spans="1:2">
@@ -20263,7 +20263,7 @@
         <v>2490</v>
       </c>
       <c r="B2490">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2491" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20407,7 +20407,7 @@
         <v>2508</v>
       </c>
       <c r="B2508">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2509" spans="1:2">
@@ -20455,7 +20455,7 @@
         <v>2514</v>
       </c>
       <c r="B2514">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2515" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20823,7 +20823,7 @@
         <v>2560</v>
       </c>
       <c r="B2560">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2561" spans="1:2">
@@ -21007,7 +21007,7 @@
         <v>2583</v>
       </c>
       <c r="B2583">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2584" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21687,7 +21687,7 @@
         <v>2668</v>
       </c>
       <c r="B2668">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2669" spans="1:2">
@@ -21751,7 +21751,7 @@
         <v>2676</v>
       </c>
       <c r="B2676">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2677" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -21975,7 +21975,7 @@
         <v>2704</v>
       </c>
       <c r="B2704">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2705" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22351,7 +22351,7 @@
         <v>2751</v>
       </c>
       <c r="B2751">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2752" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22815,7 +22815,7 @@
         <v>2809</v>
       </c>
       <c r="B2809">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2810" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23535,7 +23535,7 @@
         <v>2899</v>
       </c>
       <c r="B2899">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
@@ -23543,7 +23543,7 @@
         <v>2900</v>
       </c>
       <c r="B2900">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -23919,7 +23919,7 @@
         <v>2947</v>
       </c>
       <c r="B2947">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2948" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24111,7 +24111,7 @@
         <v>2971</v>
       </c>
       <c r="B2971">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2972" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24279,7 +24279,7 @@
         <v>2992</v>
       </c>
       <c r="B2992">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="2993" spans="1:2">
@@ -24471,7 +24471,7 @@
         <v>3016</v>
       </c>
       <c r="B3016">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3017" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24887,7 +24887,7 @@
         <v>3068</v>
       </c>
       <c r="B3068">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3069" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25455,7 +25455,7 @@
         <v>3139</v>
       </c>
       <c r="B3139">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3140" spans="1:2">
@@ -25463,7 +25463,7 @@
         <v>3140</v>
       </c>
       <c r="B3140">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3141" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25815,7 +25815,7 @@
         <v>3184</v>
       </c>
       <c r="B3184">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3185" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26231,7 +26231,7 @@
         <v>3236</v>
       </c>
       <c r="B3236">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3237" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26415,7 +26415,7 @@
         <v>3259</v>
       </c>
       <c r="B3259">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3260" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26967,7 +26967,7 @@
         <v>3328</v>
       </c>
       <c r="B3328">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3329" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27375,7 +27375,7 @@
         <v>3379</v>
       </c>
       <c r="B3379">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27567,7 +27567,7 @@
         <v>3403</v>
       </c>
       <c r="B3403">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3404" spans="1:2">
@@ -27575,7 +27575,7 @@
         <v>3404</v>
       </c>
       <c r="B3404">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
@@ -27647,7 +27647,7 @@
         <v>3413</v>
       </c>
       <c r="B3413">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3414" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27767,7 +27767,7 @@
         <v>3428</v>
       </c>
       <c r="B3428">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3429" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -28143,7 +28143,7 @@
         <v>3475</v>
       </c>
       <c r="B3475">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3476" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -28695,7 +28695,7 @@
         <v>3544</v>
       </c>
       <c r="B3544">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3545" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -28991,7 +28991,7 @@
         <v>3581</v>
       </c>
       <c r="B3581">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -29103,7 +29103,7 @@
         <v>3595</v>
       </c>
       <c r="B3595">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -29183,7 +29183,7 @@
         <v>3605</v>
       </c>
       <c r="B3605">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -29295,7 +29295,7 @@
         <v>3619</v>
       </c>
       <c r="B3619">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -29303,7 +29303,7 @@
         <v>3620</v>
       </c>
       <c r="B3620">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29455,7 +29455,7 @@
         <v>3639</v>
       </c>
       <c r="B3639">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29511,7 +29511,7 @@
         <v>3646</v>
       </c>
       <c r="B3646">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30087,7 +30087,7 @@
         <v>3718</v>
       </c>
       <c r="B3718">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30167,7 +30167,7 @@
         <v>3728</v>
       </c>
       <c r="B3728">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30231,7 +30231,7 @@
         <v>3736</v>
       </c>
       <c r="B3736">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30279,7 +30279,7 @@
         <v>3742</v>
       </c>
       <c r="B3742">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -30351,7 +30351,7 @@
         <v>3751</v>
       </c>
       <c r="B3751">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30471,7 +30471,7 @@
         <v>3766</v>
       </c>
       <c r="B3766">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30663,7 +30663,7 @@
         <v>3790</v>
       </c>
       <c r="B3790">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30855,7 +30855,7 @@
         <v>3814</v>
       </c>
       <c r="B3814">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31383,7 +31383,7 @@
         <v>3880</v>
       </c>
       <c r="B3880">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3881" spans="1:2">
@@ -31431,7 +31431,7 @@
         <v>3886</v>
       </c>
       <c r="B3886">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3887" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31623,7 +31623,7 @@
         <v>3910</v>
       </c>
       <c r="B3910">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3911" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31767,7 +31767,7 @@
         <v>3928</v>
       </c>
       <c r="B3928">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3929" spans="1:2">
@@ -31815,7 +31815,7 @@
         <v>3934</v>
       </c>
       <c r="B3934">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3935" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31895,7 +31895,7 @@
         <v>3944</v>
       </c>
       <c r="B3944">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32199,7 +32199,7 @@
         <v>3982</v>
       </c>
       <c r="B3982">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="3983" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32663,7 +32663,7 @@
         <v>4040</v>
       </c>
       <c r="B4040">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4041" spans="1:2">
@@ -32719,7 +32719,7 @@
         <v>4047</v>
       </c>
       <c r="B4047">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4048" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32775,7 +32775,7 @@
         <v>4054</v>
       </c>
       <c r="B4054">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4055" spans="1:2">
@@ -32847,7 +32847,7 @@
         <v>4063</v>
       </c>
       <c r="B4063">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32967,7 +32967,7 @@
         <v>4078</v>
       </c>
       <c r="B4078">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4079" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33111,7 +33111,7 @@
         <v>4096</v>
       </c>
       <c r="B4096">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4097" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33351,7 +33351,7 @@
         <v>4126</v>
       </c>
       <c r="B4126">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4127" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33487,7 +33487,7 @@
         <v>4143</v>
       </c>
       <c r="B4143">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4144" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33543,7 +33543,7 @@
         <v>4150</v>
       </c>
       <c r="B4150">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4151" spans="1:2">
@@ -33703,7 +33703,7 @@
         <v>4170</v>
       </c>
       <c r="B4170">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4171" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33999,7 +33999,7 @@
         <v>4207</v>
       </c>
       <c r="B4207">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4208" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34119,7 +34119,7 @@
         <v>4222</v>
       </c>
       <c r="B4222">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4223" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34311,7 +34311,7 @@
         <v>4246</v>
       </c>
       <c r="B4246">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4247" spans="1:2">
@@ -34383,7 +34383,7 @@
         <v>4255</v>
       </c>
       <c r="B4255">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4256" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34575,7 +34575,7 @@
         <v>4279</v>
       </c>
       <c r="B4279">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4280" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34695,7 +34695,7 @@
         <v>4294</v>
       </c>
       <c r="B4294">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4295" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -35047,7 +35047,7 @@
         <v>4338</v>
       </c>
       <c r="B4338">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -39415,7 +39415,7 @@
         <v>4884</v>
       </c>
       <c r="B4884">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41055,7 +41055,7 @@
         <v>5089</v>
       </c>
       <c r="B5089">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41183,7 +41183,7 @@
         <v>5105</v>
       </c>
       <c r="B5105">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41207,7 +41207,7 @@
         <v>5108</v>
       </c>
       <c r="B5108">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5109" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41343,7 +41343,7 @@
         <v>5125</v>
       </c>
       <c r="B5125">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41375,7 +41375,7 @@
         <v>5129</v>
       </c>
       <c r="B5129">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5130" spans="1:2">
@@ -41399,7 +41399,7 @@
         <v>5132</v>
       </c>
       <c r="B5132">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5133" spans="1:2">
@@ -41439,7 +41439,7 @@
         <v>5137</v>
       </c>
       <c r="B5137">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5138" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41831,7 +41831,7 @@
         <v>5186</v>
       </c>
       <c r="B5186">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5187" spans="1:2">
@@ -42015,7 +42015,7 @@
         <v>5209</v>
       </c>
       <c r="B5209">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5210" spans="1:2">
@@ -42095,7 +42095,7 @@
         <v>5219</v>
       </c>
       <c r="B5219">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5220" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -42167,7 +42167,7 @@
         <v>5228</v>
       </c>
       <c r="B5228">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5229" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42287,7 +42287,7 @@
         <v>5243</v>
       </c>
       <c r="B5243">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5244" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42359,7 +42359,7 @@
         <v>5252</v>
       </c>
       <c r="B5252">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5253" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42591,7 +42591,7 @@
         <v>5281</v>
       </c>
       <c r="B5281">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5282" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42783,7 +42783,7 @@
         <v>5305</v>
       </c>
       <c r="B5305">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5306" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42911,7 +42911,7 @@
         <v>5321</v>
       </c>
       <c r="B5321">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5322" spans="1:2">
@@ -42935,7 +42935,7 @@
         <v>5324</v>
       </c>
       <c r="B5324">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5325" spans="1:2">
@@ -42983,7 +42983,7 @@
         <v>5330</v>
       </c>
       <c r="B5330">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5331" spans="1:2">
@@ -43175,7 +43175,7 @@
         <v>5354</v>
       </c>
       <c r="B5354">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5355" spans="1:2">
@@ -43359,7 +43359,7 @@
         <v>5377</v>
       </c>
       <c r="B5377">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5378" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -43551,7 +43551,7 @@
         <v>5401</v>
       </c>
       <c r="B5401">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5402" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43703,7 +43703,7 @@
         <v>5420</v>
       </c>
       <c r="B5420">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5421" spans="1:2">
@@ -43743,7 +43743,7 @@
         <v>5425</v>
       </c>
       <c r="B5425">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5426" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -43895,7 +43895,7 @@
         <v>5444</v>
       </c>
       <c r="B5444">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5445" spans="1:2">
@@ -43935,7 +43935,7 @@
         <v>5449</v>
       </c>
       <c r="B5449">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5450" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44031,7 +44031,7 @@
         <v>5461</v>
       </c>
       <c r="B5461">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5462" spans="1:2">
@@ -44063,7 +44063,7 @@
         <v>5465</v>
       </c>
       <c r="B5465">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5466" spans="1:2">
@@ -44087,7 +44087,7 @@
         <v>5468</v>
       </c>
       <c r="B5468">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5469" spans="1:2">
@@ -44127,7 +44127,7 @@
         <v>5473</v>
       </c>
       <c r="B5473">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5474" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44327,7 +44327,7 @@
         <v>5498</v>
       </c>
       <c r="B5498">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5499" spans="1:2">
@@ -44519,7 +44519,7 @@
         <v>5522</v>
       </c>
       <c r="B5522">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5523" spans="1:2">
@@ -44703,7 +44703,7 @@
         <v>5545</v>
       </c>
       <c r="B5545">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5546" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44831,7 +44831,7 @@
         <v>5561</v>
       </c>
       <c r="B5561">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5562" spans="1:2">
@@ -44855,7 +44855,7 @@
         <v>5564</v>
       </c>
       <c r="B5564">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5565" spans="1:2">
@@ -44895,7 +44895,7 @@
         <v>5569</v>
       </c>
       <c r="B5569">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5570" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45023,7 +45023,7 @@
         <v>5585</v>
       </c>
       <c r="B5585">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5586" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45215,7 +45215,7 @@
         <v>5609</v>
       </c>
       <c r="B5609">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5610" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45279,7 +45279,7 @@
         <v>5617</v>
       </c>
       <c r="B5617">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5618" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45431,7 +45431,7 @@
         <v>5636</v>
       </c>
       <c r="B5636">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5637" spans="1:2">
@@ -45471,7 +45471,7 @@
         <v>5641</v>
       </c>
       <c r="B5641">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5642" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45623,7 +45623,7 @@
         <v>5660</v>
       </c>
       <c r="B5660">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5661" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45863,7 +45863,7 @@
         <v>5690</v>
       </c>
       <c r="B5690">
-        <v>255.5145711989713</v>
+        <v>255.5145711989712</v>
       </c>
     </row>
     <row r="5691" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46199,7 +46199,7 @@
         <v>5732</v>
       </c>
       <c r="B5732">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5733" spans="1:2">
@@ -46239,7 +46239,7 @@
         <v>5737</v>
       </c>
       <c r="B5737">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5738" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46583,7 +46583,7 @@
         <v>5780</v>
       </c>
       <c r="B5780">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5781" spans="1:2">
@@ -46623,7 +46623,7 @@
         <v>5785</v>
       </c>
       <c r="B5785">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5786" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46775,7 +46775,7 @@
         <v>5804</v>
       </c>
       <c r="B5804">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5805" spans="1:2">
@@ -46815,7 +46815,7 @@
         <v>5809</v>
       </c>
       <c r="B5809">
-        <v>284.645832441909</v>
+        <v>284.6458324419089</v>
       </c>
     </row>
     <row r="5810" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46943,7 +46943,7 @@
         <v>5825</v>
       </c>
       <c r="B5825">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5826" spans="1:2">
@@ -46967,7 +46967,7 @@
         <v>5828</v>
       </c>
       <c r="B5828">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5829" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47383,7 +47383,7 @@
         <v>5880</v>
       </c>
       <c r="B5880">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="5881" spans="1:2">
@@ -47391,7 +47391,7 @@
         <v>5881</v>
       </c>
       <c r="B5881">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="5882" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47759,7 +47759,7 @@
         <v>5927</v>
       </c>
       <c r="B5927">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="5928" spans="1:2">
@@ -47799,7 +47799,7 @@
         <v>5932</v>
       </c>
       <c r="B5932">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="5933" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47951,7 +47951,7 @@
         <v>5951</v>
       </c>
       <c r="B5951">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="5952" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -48231,7 +48231,7 @@
         <v>5986</v>
       </c>
       <c r="B5986">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="5987" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48335,7 +48335,7 @@
         <v>5999</v>
       </c>
       <c r="B5999">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6000" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48535,7 +48535,7 @@
         <v>6024</v>
       </c>
       <c r="B6024">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6025" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -48951,7 +48951,7 @@
         <v>6076</v>
       </c>
       <c r="B6076">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6077" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49007,7 +49007,7 @@
         <v>6083</v>
       </c>
       <c r="B6083">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6084" spans="1:2">
@@ -49103,7 +49103,7 @@
         <v>6095</v>
       </c>
       <c r="B6095">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6096" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49335,7 +49335,7 @@
         <v>6124</v>
       </c>
       <c r="B6124">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6125" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49487,7 +49487,7 @@
         <v>6143</v>
       </c>
       <c r="B6143">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6144" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49679,7 +49679,7 @@
         <v>6167</v>
       </c>
       <c r="B6167">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6168" spans="1:2">
@@ -49687,7 +49687,7 @@
         <v>6168</v>
       </c>
       <c r="B6168">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6169" spans="1:2">
@@ -49695,7 +49695,7 @@
         <v>6169</v>
       </c>
       <c r="B6169">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6170" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49887,7 +49887,7 @@
         <v>6193</v>
       </c>
       <c r="B6193">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6194" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50447,7 +50447,7 @@
         <v>6263</v>
       </c>
       <c r="B6263">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6264" spans="1:2">
@@ -50487,7 +50487,7 @@
         <v>6268</v>
       </c>
       <c r="B6268">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6269" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50639,7 +50639,7 @@
         <v>6287</v>
       </c>
       <c r="B6287">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6288" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51223,7 +51223,7 @@
         <v>6360</v>
       </c>
       <c r="B6360">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6361" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51639,7 +51639,7 @@
         <v>6412</v>
       </c>
       <c r="B6412">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6413" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51983,7 +51983,7 @@
         <v>6455</v>
       </c>
       <c r="B6455">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6456" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52175,7 +52175,7 @@
         <v>6479</v>
       </c>
       <c r="B6479">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6480" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>284.406100332284</v>
+        <v>284.4061003322839</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52367,7 +52367,7 @@
         <v>6503</v>
       </c>
       <c r="B6503">
-        <v>284.5206911084006</v>
+        <v>284.5206911084005</v>
       </c>
     </row>
     <row r="6504" spans="1:2">
@@ -52375,7 +52375,7 @@
         <v>6504</v>
       </c>
       <c r="B6504">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6505" spans="1:2">
@@ -52383,7 +52383,7 @@
         <v>6505</v>
       </c>
       <c r="B6505">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6506" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>255.3800515922257</v>
+        <v>255.3800515922256</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>254.410572596334</v>
+        <v>254.4105725963339</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53095,7 +53095,7 @@
         <v>6594</v>
       </c>
       <c r="B6594">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6595" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53471,7 +53471,7 @@
         <v>6641</v>
       </c>
       <c r="B6641">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6642" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54815,7 +54815,7 @@
         <v>6809</v>
       </c>
       <c r="B6809">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6810" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55583,7 +55583,7 @@
         <v>6905</v>
       </c>
       <c r="B6905">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6906" spans="1:2">
@@ -55591,7 +55591,7 @@
         <v>6906</v>
       </c>
       <c r="B6906">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55783,7 +55783,7 @@
         <v>6930</v>
       </c>
       <c r="B6930">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6931" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -55975,7 +55975,7 @@
         <v>6954</v>
       </c>
       <c r="B6954">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6955" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56359,7 +56359,7 @@
         <v>7002</v>
       </c>
       <c r="B7002">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7003" spans="1:2">
@@ -56927,7 +56927,7 @@
         <v>7073</v>
       </c>
       <c r="B7073">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7074" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -57119,7 +57119,7 @@
         <v>7097</v>
       </c>
       <c r="B7097">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7098" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57311,7 +57311,7 @@
         <v>7121</v>
       </c>
       <c r="B7121">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7122" spans="1:2">
@@ -57319,7 +57319,7 @@
         <v>7122</v>
       </c>
       <c r="B7122">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7123" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57695,7 +57695,7 @@
         <v>7169</v>
       </c>
       <c r="B7169">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7170" spans="1:2">
@@ -57703,7 +57703,7 @@
         <v>7170</v>
       </c>
       <c r="B7170">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7171" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -59015,7 +59015,7 @@
         <v>7334</v>
       </c>
       <c r="B7334">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7335" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59215,7 +59215,7 @@
         <v>7359</v>
       </c>
       <c r="B7359">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7360" spans="1:2">
@@ -59231,7 +59231,7 @@
         <v>7361</v>
       </c>
       <c r="B7361">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7362" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59519,7 +59519,7 @@
         <v>7397</v>
       </c>
       <c r="B7397">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7398" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59671,7 +59671,7 @@
         <v>7416</v>
       </c>
       <c r="B7416">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7417" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59863,7 +59863,7 @@
         <v>7440</v>
       </c>
       <c r="B7440">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7441" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60095,7 +60095,7 @@
         <v>7469</v>
       </c>
       <c r="B7469">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7470" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60439,7 +60439,7 @@
         <v>7512</v>
       </c>
       <c r="B7512">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7513" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60519,7 +60519,7 @@
         <v>7522</v>
       </c>
       <c r="B7522">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7523" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60583,7 +60583,7 @@
         <v>7530</v>
       </c>
       <c r="B7530">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7531" spans="1:2">
@@ -60703,7 +60703,7 @@
         <v>7545</v>
       </c>
       <c r="B7545">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7546" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60895,7 +60895,7 @@
         <v>7569</v>
       </c>
       <c r="B7569">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7570" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -60951,7 +60951,7 @@
         <v>7576</v>
       </c>
       <c r="B7576">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7577" spans="1:2">
@@ -60967,7 +60967,7 @@
         <v>7578</v>
       </c>
       <c r="B7578">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7579" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62119,7 +62119,7 @@
         <v>7722</v>
       </c>
       <c r="B7722">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7723" spans="1:2">
@@ -62207,7 +62207,7 @@
         <v>7733</v>
       </c>
       <c r="B7733">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7734" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62815,7 +62815,7 @@
         <v>7809</v>
       </c>
       <c r="B7809">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7810" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62975,7 +62975,7 @@
         <v>7829</v>
       </c>
       <c r="B7829">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7830" spans="1:2">
@@ -63055,7 +63055,7 @@
         <v>7839</v>
       </c>
       <c r="B7839">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7840" spans="1:2">
@@ -63127,7 +63127,7 @@
         <v>7848</v>
       </c>
       <c r="B7848">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7849" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63399,7 +63399,7 @@
         <v>7882</v>
       </c>
       <c r="B7882">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7883" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63703,7 +63703,7 @@
         <v>7920</v>
       </c>
       <c r="B7920">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7921" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63895,7 +63895,7 @@
         <v>7944</v>
       </c>
       <c r="B7944">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7945" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64087,7 +64087,7 @@
         <v>7968</v>
       </c>
       <c r="B7968">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7969" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64319,7 +64319,7 @@
         <v>7997</v>
       </c>
       <c r="B7997">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7998" spans="1:2">
@@ -64399,7 +64399,7 @@
         <v>8007</v>
       </c>
       <c r="B8007">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="8008" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64855,7 +64855,7 @@
         <v>8064</v>
       </c>
       <c r="B8064">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8065" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65351,7 +65351,7 @@
         <v>8126</v>
       </c>
       <c r="B8126">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8127" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -65983,7 +65983,7 @@
         <v>8205</v>
       </c>
       <c r="B8205">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8206" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66183,7 +66183,7 @@
         <v>8230</v>
       </c>
       <c r="B8230">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8231" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66695,7 +66695,7 @@
         <v>8294</v>
       </c>
       <c r="B8294">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8295" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67519,7 +67519,7 @@
         <v>8397</v>
       </c>
       <c r="B8397">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8398" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67847,7 +67847,7 @@
         <v>8438</v>
       </c>
       <c r="B8438">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8439" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68671,7 +68671,7 @@
         <v>8541</v>
       </c>
       <c r="B8541">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8542" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69767,7 +69767,7 @@
         <v>8678</v>
       </c>
       <c r="B8678">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8679" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70343,7 +70343,7 @@
         <v>8750</v>
       </c>
       <c r="B8750">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8751" spans="1:2">
